--- a/src/domains/blocks/all_experiment_results-percentage-0.3.xlsx
+++ b/src/domains/blocks/all_experiment_results-percentage-0.3.xlsx
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="H2">
         <v>1</v>
